--- a/funciones_basicas1/funciones_basicas.xlsx
+++ b/funciones_basicas1/funciones_basicas.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="98">
   <si>
     <t>1.-</t>
   </si>
@@ -304,12 +304,21 @@
   </si>
   <si>
     <t>z = a();</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>function a()j se repite cada vez que toma i</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -324,7 +333,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,6 +349,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -481,28 +502,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -512,6 +521,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -792,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J126"/>
+  <dimension ref="A2:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123:F123"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -816,11 +839,11 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -834,7 +857,7 @@
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <f>E5</f>
         <v>35</v>
       </c>
@@ -868,10 +891,10 @@
         <v>8</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="7">
         <f>E10+E10</f>
         <v>8</v>
       </c>
@@ -909,22 +932,22 @@
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="7">
         <f>+E16+E17</f>
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D15" t="s">
@@ -933,10 +956,10 @@
       <c r="E15" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="11"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D16" t="s">
@@ -945,10 +968,10 @@
       <c r="E16">
         <v>2</v>
       </c>
-      <c r="G16" s="11"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D17" t="s">
@@ -957,10 +980,10 @@
       <c r="E17">
         <v>4</v>
       </c>
-      <c r="G17" s="11"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G18" s="11"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -969,14 +992,14 @@
       <c r="B20" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="9" t="s">
+      <c r="E20" s="26"/>
+      <c r="F20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="7">
         <f>E21</f>
         <v>3</v>
       </c>
@@ -991,8 +1014,8 @@
       <c r="E21">
         <v>3</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9">
+      <c r="F21" s="7"/>
+      <c r="G21" s="7">
         <f>E21*3</f>
         <v>9</v>
       </c>
@@ -1025,14 +1048,14 @@
       <c r="B27" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="9" t="s">
+      <c r="E27" s="26"/>
+      <c r="F27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="7">
         <f>E28*4</f>
         <v>40</v>
       </c>
@@ -1083,11 +1106,11 @@
       <c r="G34" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14" t="s">
+      <c r="H34" s="10"/>
+      <c r="I34" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J34" s="15">
+      <c r="J34" s="12">
         <f>IF(E35&lt;10,(H35),(H36))</f>
         <v>4</v>
       </c>
@@ -1105,10 +1128,10 @@
       <c r="G35" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H35" s="13">
         <v>2</v>
       </c>
-      <c r="I35" s="16"/>
+      <c r="I35" s="13"/>
       <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -1118,10 +1141,10 @@
       <c r="G36" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H36" s="16">
+      <c r="H36" s="13">
         <v>4</v>
       </c>
-      <c r="I36" s="16"/>
+      <c r="I36" s="13"/>
       <c r="J36" s="4"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -1129,8 +1152,8 @@
         <v>35</v>
       </c>
       <c r="G37" s="5"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
       <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -1174,14 +1197,14 @@
         <v>47</v>
       </c>
       <c r="E46" s="2"/>
-      <c r="G46" s="7" t="s">
+      <c r="G46" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H46" s="18"/>
-      <c r="I46" s="13" t="s">
+      <c r="H46" s="27"/>
+      <c r="I46" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J46" s="15">
+      <c r="J46" s="12">
         <f>H48</f>
         <v>3</v>
       </c>
@@ -1199,11 +1222,11 @@
       <c r="G47" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H47" s="16">
+      <c r="H47" s="13">
         <v>10</v>
       </c>
-      <c r="I47" s="16"/>
-      <c r="J47" s="19">
+      <c r="I47" s="13"/>
+      <c r="J47" s="15">
         <f>+H47</f>
         <v>10</v>
       </c>
@@ -1215,11 +1238,11 @@
       <c r="G48" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H48" s="17">
+      <c r="H48" s="14">
         <v>3</v>
       </c>
-      <c r="I48" s="17"/>
-      <c r="J48" s="20">
+      <c r="I48" s="14"/>
+      <c r="J48" s="16">
         <f>J46*J47</f>
         <v>30</v>
       </c>
@@ -1244,10 +1267,10 @@
       <c r="D53" t="s">
         <v>57</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="G53" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H53" s="9">
+      <c r="H53" s="7">
         <f>E54</f>
         <v>3</v>
       </c>
@@ -1262,7 +1285,7 @@
       <c r="E54">
         <v>3</v>
       </c>
-      <c r="H54" s="9">
+      <c r="H54" s="7">
         <f>E55</f>
         <v>4</v>
       </c>
@@ -1319,7 +1342,7 @@
       <c r="G63" t="s">
         <v>9</v>
       </c>
-      <c r="H63" s="9">
+      <c r="H63" s="7">
         <f>E64+2</f>
         <v>2</v>
       </c>
@@ -1334,7 +1357,7 @@
       <c r="E64">
         <v>0</v>
       </c>
-      <c r="H64" s="9">
+      <c r="H64" s="7">
         <f>E65+2</f>
         <v>5</v>
       </c>
@@ -1349,7 +1372,7 @@
       <c r="E65">
         <v>3</v>
       </c>
-      <c r="H65" s="9">
+      <c r="H65" s="7">
         <f>E66+2</f>
         <v>8</v>
       </c>
@@ -1364,7 +1387,7 @@
       <c r="E66">
         <v>6</v>
       </c>
-      <c r="H66" s="9">
+      <c r="H66" s="7">
         <f>E67+2</f>
         <v>11</v>
       </c>
@@ -1400,16 +1423,16 @@
       <c r="D72" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
       <c r="G72" s="2"/>
       <c r="H72" t="s">
         <v>9</v>
       </c>
-      <c r="I72" s="9">
+      <c r="I72" s="7">
         <v>0</v>
       </c>
-      <c r="J72" s="9">
+      <c r="J72" s="7">
         <v>5</v>
       </c>
     </row>
@@ -1420,19 +1443,19 @@
       <c r="D73" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E73" s="16">
+      <c r="E73" s="13">
         <v>0</v>
       </c>
-      <c r="F73" s="16" t="s">
+      <c r="F73" s="13" t="s">
         <v>63</v>
       </c>
       <c r="G73">
         <v>5</v>
       </c>
-      <c r="I73" s="9">
+      <c r="I73" s="7">
         <v>1</v>
       </c>
-      <c r="J73" s="9">
+      <c r="J73" s="7">
         <v>6</v>
       </c>
     </row>
@@ -1443,19 +1466,19 @@
       <c r="D74" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E74" s="16">
+      <c r="E74" s="13">
         <v>1</v>
       </c>
-      <c r="F74" s="16" t="s">
+      <c r="F74" s="13" t="s">
         <v>63</v>
       </c>
       <c r="G74" s="4">
         <v>6</v>
       </c>
-      <c r="I74" s="9">
+      <c r="I74" s="7">
         <v>2</v>
       </c>
-      <c r="J74" s="9">
+      <c r="J74" s="7">
         <v>7</v>
       </c>
     </row>
@@ -1466,19 +1489,19 @@
       <c r="D75" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E75" s="16">
+      <c r="E75" s="13">
         <v>2</v>
       </c>
-      <c r="F75" s="16" t="s">
+      <c r="F75" s="13" t="s">
         <v>63</v>
       </c>
       <c r="G75" s="4">
         <v>7</v>
       </c>
-      <c r="I75" s="9">
+      <c r="I75" s="7">
         <v>3</v>
       </c>
-      <c r="J75" s="9">
+      <c r="J75" s="7">
         <v>8</v>
       </c>
     </row>
@@ -1489,19 +1512,19 @@
       <c r="D76" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E76" s="16">
+      <c r="E76" s="13">
         <v>3</v>
       </c>
-      <c r="F76" s="16" t="s">
+      <c r="F76" s="13" t="s">
         <v>63</v>
       </c>
       <c r="G76" s="4">
         <v>8</v>
       </c>
-      <c r="I76" s="9">
+      <c r="I76" s="7">
         <v>4</v>
       </c>
-      <c r="J76" s="9">
+      <c r="J76" s="7">
         <v>9</v>
       </c>
     </row>
@@ -1512,17 +1535,17 @@
       <c r="D77" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E77" s="16">
+      <c r="E77" s="13">
         <v>4</v>
       </c>
-      <c r="F77" s="16" t="s">
+      <c r="F77" s="13" t="s">
         <v>63</v>
       </c>
       <c r="G77" s="4">
         <v>9</v>
       </c>
-      <c r="I77" s="9"/>
-      <c r="J77" s="9">
+      <c r="I77" s="7"/>
+      <c r="J77" s="7">
         <f>E73</f>
         <v>0</v>
       </c>
@@ -1532,8 +1555,8 @@
         <v>70</v>
       </c>
       <c r="D78" s="5"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
       <c r="G78" s="6"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -1541,7 +1564,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>72</v>
       </c>
@@ -1551,301 +1574,445 @@
       <c r="D82" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H82" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>52</v>
       </c>
       <c r="D83" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="E83" t="s">
+        <v>6</v>
+      </c>
+      <c r="H83" t="s">
+        <v>95</v>
+      </c>
+      <c r="I83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D84" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="H84" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D85" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="H85" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D86" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="H86" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="I86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D87" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E87">
+        <v>3</v>
+      </c>
+      <c r="H87" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="I87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D88" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E88">
+        <v>4</v>
+      </c>
+      <c r="H88" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="I88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+      <c r="D89" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E89">
+        <v>5</v>
+      </c>
+      <c r="H89" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="I89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D90" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E90">
+        <v>6</v>
+      </c>
+      <c r="H90" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="I90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D91" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E91">
+        <v>7</v>
+      </c>
+      <c r="H91" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="I91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D92" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E92">
+        <v>8</v>
+      </c>
+      <c r="H92" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="I92">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D93" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E93">
+        <v>9</v>
+      </c>
+      <c r="H93" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="I93">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D94" s="28"/>
+      <c r="H94" s="29"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>77</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B97" t="s">
         <v>2</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D97" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B93" t="s">
-        <v>52</v>
-      </c>
-      <c r="D93" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B94" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B95" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B96" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B97" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>35</v>
+        <v>52</v>
+      </c>
+      <c r="D98" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
-        <v>1</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>82</v>
-      </c>
       <c r="B102" t="s">
-        <v>83</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="H102" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I102" s="2"/>
+        <v>81</v>
+      </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
-        <v>2</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E103" s="6">
-        <v>10</v>
-      </c>
-      <c r="H103" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="I103" s="6">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>82</v>
+      </c>
+      <c r="B107" t="s">
+        <v>83</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="H107" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I107" s="2"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E108" s="6">
+        <v>10</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I108" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
         <v>84</v>
       </c>
-      <c r="H104" t="s">
+      <c r="H109" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B105" t="s">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B106" t="s">
-        <v>1</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E106" s="9">
-        <f>E103</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B107" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>90</v>
-      </c>
-      <c r="B110" t="s">
-        <v>83</v>
-      </c>
-      <c r="D110" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="E110" s="22"/>
-      <c r="H110" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I110" s="2"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
-        <v>2</v>
-      </c>
-      <c r="D111" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="E111" s="24">
+        <v>1</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" s="7">
+        <f>E108</f>
         <v>10</v>
-      </c>
-      <c r="H111" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="I111" s="6">
-        <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B113" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B114" t="s">
-        <v>1</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E114" s="25">
-        <f>E111</f>
-        <v>10</v>
-      </c>
-      <c r="F114" s="26">
-        <f>I111</f>
-        <v>15</v>
-      </c>
-      <c r="G114" s="27">
-        <f>E111</f>
-        <v>10</v>
+        <v>86</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>90</v>
+      </c>
       <c r="B115" t="s">
-        <v>91</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E115" s="18"/>
+      <c r="H115" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I115" s="2"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
-        <v>86</v>
+        <v>2</v>
+      </c>
+      <c r="D116" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E116" s="20">
+        <v>10</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I116" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>92</v>
-      </c>
       <c r="B119" t="s">
-        <v>83</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E119" s="2"/>
-      <c r="H119" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="I119" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" s="21">
+        <f>E116</f>
+        <v>10</v>
+      </c>
+      <c r="F119" s="22">
+        <f>I116</f>
+        <v>15</v>
+      </c>
+      <c r="G119" s="23">
+        <f>E116</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
-        <v>2</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E120" s="6">
-        <v>10</v>
-      </c>
-      <c r="H120" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="I120" s="24">
-        <v>15</v>
+        <v>91</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B122" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B123" t="s">
-        <v>93</v>
-      </c>
-      <c r="D123" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E123" s="26">
-        <f>+I120</f>
-        <v>15</v>
-      </c>
-      <c r="F123" s="27">
-        <f>+I120</f>
-        <v>15</v>
+        <v>86</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>92</v>
+      </c>
       <c r="B124" t="s">
-        <v>1</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E124" s="2"/>
+      <c r="H124" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I124" s="18"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
-        <v>94</v>
+        <v>2</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E125" s="6">
+        <v>10</v>
+      </c>
+      <c r="H125" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I125" s="20">
+        <v>15</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>93</v>
+      </c>
+      <c r="D128" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128" s="22">
+        <f>+I125</f>
+        <v>15</v>
+      </c>
+      <c r="F128" s="23">
+        <f>+I125</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
         <v>86</v>
       </c>
     </row>
